--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2436.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2436.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.018789668898153</v>
+        <v>2.158448219299316</v>
       </c>
       <c r="B1">
-        <v>2.073852192268657</v>
+        <v>2.691727876663208</v>
       </c>
       <c r="C1">
-        <v>8.946411555837772</v>
+        <v>2.861679077148438</v>
       </c>
       <c r="D1">
-        <v>2.558466408624317</v>
+        <v>3.475243330001831</v>
       </c>
       <c r="E1">
-        <v>0.9939384262822202</v>
+        <v>1.81864595413208</v>
       </c>
     </row>
   </sheetData>
